--- a/data/old_results/2013_presidential/2013Mash_West_Presidential_Results_Formatted_13-08-2013.xlsx
+++ b/data/old_results/2013_presidential/2013Mash_West_Presidential_Results_Formatted_13-08-2013.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\office\Desktop\DI\Zimbabwe_election\data\old_results\2013_presidential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DD76F20-4960-4EF5-8A92-A94609C5EA20}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A568AC4-F993-4995-935A-5A12C3EB1017}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6546" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6554" uniqueCount="1389">
   <si>
     <r>
       <rPr>
@@ -13828,6 +13828,18 @@
   </si>
   <si>
     <t>Local Authority</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Kadoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra exist in 60 </t>
+  </si>
+  <si>
+    <t>this = Kadoma</t>
   </si>
 </sst>
 </file>
@@ -13906,7 +13918,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13916,6 +13928,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -13965,7 +13983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -14026,29 +14044,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -36391,7 +36401,7 @@
     <i/>
   </colItems>
   <formats count="2">
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -36743,84 +36753,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6FC080-9FD6-4E3F-ABF0-5B33B8DB53E6}">
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="E3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>1378</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1380</v>
       </c>
       <c r="B5" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1382</v>
       </c>
       <c r="B6" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1379</v>
       </c>
       <c r="B7" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1376</v>
       </c>
       <c r="B8" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1381</v>
       </c>
       <c r="B9" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1383</v>
       </c>
       <c r="B10" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1377</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
